--- a/biology/Botanique/Howea/Howea.xlsx
+++ b/biology/Botanique/Howea/Howea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Howea est un genre de plantes de la famille des Arecaceae (palmiers) endémique de l'île de Lord Howe, située près de la côte Est de l'Australie.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille : Arecoideae.
 Tribu : Areceae
-Sous-tribu : Laccospadicinae[1]
+Sous-tribu : Laccospadicinae
 Le genre partage sa sous-tribu avec les genres suivants : Linospadix, Laccospadix, Calyptrocalyx.
 Il comprend deux espèces : 
 Howea belmoreana (C.Moore &amp; F.Muell.) Becc., Malesia 1: 66 (1877),
@@ -549,7 +563,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat naturel est variable. Il prospère sur les sables coralliens mais pousse aussi dans les montagnes sur des sols basaltiques.
 Il est abondamment planté en dehors de son milieu d'origine comme plante décorative. Il est notamment très répandu comme plante d'intérieur.
@@ -581,7 +597,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stipe. Le stipe est solitaire, lisse et irrégulièrement annelé. Il mesure jusqu'à 10 mètres de haut.
 Feuilles. Les feuilles sont pennées et la base est recouverte de longs fils. Les segments sont régulièrement répartis le long de la feuille.
@@ -614,9 +632,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Howea forsteriana est souvent cultivé en pot comme plante d'appartement sous le nom de « kentia »[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Howea forsteriana est souvent cultivé en pot comme plante d'appartement sous le nom de « kentia ».
 </t>
         </is>
       </c>
